--- a/outputs/p__Firmicutes.xlsx
+++ b/outputs/p__Firmicutes.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F84EF1B-945C-BA4C-A546-FEE28D75F927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="p__Firmicutes_pred-t" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="p__Firmicutes_pred-t" sheetId="1" r:id="rId1"/>
+    <sheet name="p__Firmicutes_pred-t-p" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="32">
   <si>
     <t>c__Alicyclobacillia-c__Bacilli</t>
   </si>
@@ -96,28 +102,45 @@
   </si>
   <si>
     <t>RUG630</t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>c__Alicyclobacillia</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>gtdb-Tk</t>
+  </si>
+  <si>
+    <t>rejection-f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,26 +155,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -439,292 +479,876 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4.1994117520338232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4.8555073224411878</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>5.3368753500845623</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4.3985527705348044</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>3.6702476077369108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>11.711319791082779</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>6.7387750704825882</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>9.7015131536691168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>4.3204670732630799</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>9.3544774825342127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>13.868023792524619</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>5.3298314280857468</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>9.1935956333422322</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>5.8200445576700899</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>6.4452399033809789</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>9.9731515210106032</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>4.5783714258566972</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>6.5346790762146139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>3.5826323607758019</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>9.2030462590699003</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>4.5100724555501541</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>7.7537133377245473</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>12.36448034898145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>7.6812131299091559</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>4.199411752033823</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2">
+        <v>1.4782596533744139E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.98521740346625586</v>
+      </c>
+      <c r="D2">
+        <v>0.98521740346625586</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>4.855507322441188</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3">
+        <v>7.725238712469773E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.99227476128753023</v>
+      </c>
+      <c r="D3">
+        <v>0.99227476128753023</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>5.336875350084562</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4">
+        <v>4.7878458142184277E-3</v>
+      </c>
+      <c r="C4">
+        <v>0.99521215418578157</v>
+      </c>
+      <c r="D4">
+        <v>0.99521215418578157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
-        <v>4.398552770534804</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5">
+        <v>1.2145786975391591E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.98785421302460841</v>
+      </c>
+      <c r="D5">
+        <v>0.98785421302460841</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
-        <v>3.670247607736911</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6">
+        <v>2.4837546216875509E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.97516245378312449</v>
+      </c>
+      <c r="D6">
+        <v>0.97516245378312449</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
-        <v>11.71131979108278</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7">
+        <v>8.2003969894550721E-6</v>
+      </c>
+      <c r="C7">
+        <v>0.99999179960301054</v>
+      </c>
+      <c r="D7">
+        <v>0.99999179960301054</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="n">
-        <v>6.738775070482588</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8">
+        <v>1.182696276878725E-3</v>
+      </c>
+      <c r="C8">
+        <v>0.99881730372312127</v>
+      </c>
+      <c r="D8">
+        <v>0.99881730372312127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="n">
-        <v>9.701513153669117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9">
+        <v>6.1187089741787659E-5</v>
+      </c>
+      <c r="C9">
+        <v>0.99993881291025821</v>
+      </c>
+      <c r="D9">
+        <v>0.99993881291025821</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="n">
-        <v>4.32046707326308</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10">
+        <v>1.3119269692017819E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.98688073030798218</v>
+      </c>
+      <c r="D10">
+        <v>0.98688073030798218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="n">
-        <v>9.354477482534213</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11">
+        <v>8.6569408473291531E-5</v>
+      </c>
+      <c r="C11">
+        <v>0.99991343059152671</v>
+      </c>
+      <c r="D11">
+        <v>0.99991343059152671</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="n">
-        <v>13.86802379252462</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12">
+        <v>9.4884086310198512E-7</v>
+      </c>
+      <c r="C12">
+        <v>0.9999990511591369</v>
+      </c>
+      <c r="D12">
+        <v>0.9999990511591369</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="n">
-        <v>5.329831428085747</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13">
+        <v>4.8215269038788264E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.99517847309612117</v>
+      </c>
+      <c r="D13">
+        <v>0.99517847309612117</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="n">
-        <v>9.193595633342232</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14">
+        <v>1.016782322412757E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.99989832176775872</v>
+      </c>
+      <c r="D14">
+        <v>0.99989832176775872</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="n">
-        <v>5.82004455767009</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15">
+        <v>2.9586930765780339E-3</v>
+      </c>
+      <c r="C15">
+        <v>0.99704130692342197</v>
+      </c>
+      <c r="D15">
+        <v>0.99704130692342197</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="n">
-        <v>6.445239903380979</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16">
+        <v>1.5855455944079331E-3</v>
+      </c>
+      <c r="C16">
+        <v>0.99841445440559207</v>
+      </c>
+      <c r="D16">
+        <v>0.99841445440559207</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="n">
-        <v>9.973151521010603</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="B17">
+        <v>4.6633184558331209E-5</v>
+      </c>
+      <c r="C17">
+        <v>0.99995336681544167</v>
+      </c>
+      <c r="D17">
+        <v>0.99995336681544167</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="n">
-        <v>4.578371425856697</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B18">
+        <v>1.016717747248763E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.98983282252751237</v>
+      </c>
+      <c r="D18">
+        <v>0.98983282252751237</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
-        <v>6.534679076214614</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19">
+        <v>1.450089184635184E-3</v>
+      </c>
+      <c r="C19">
+        <v>0.99854991081536482</v>
+      </c>
+      <c r="D19">
+        <v>0.99854991081536482</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="n">
-        <v>3.582632360775802</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20">
+        <v>2.7050350755001281E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.97294964924499872</v>
+      </c>
+      <c r="D20">
+        <v>0.97294964924499872</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="n">
-        <v>9.2030462590699</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="B21">
+        <v>1.0072193204491151E-4</v>
+      </c>
+      <c r="C21">
+        <v>0.99989927806795509</v>
+      </c>
+      <c r="D21">
+        <v>0.99989927806795509</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="n">
-        <v>4.510072455550154</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="B22">
+        <v>1.087803038954527E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.98912196961045473</v>
+      </c>
+      <c r="D22">
+        <v>0.98912196961045473</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="n">
-        <v>7.753713337724547</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23">
+        <v>4.2896192680463852E-4</v>
+      </c>
+      <c r="C23">
+        <v>0.99957103807319536</v>
+      </c>
+      <c r="D23">
+        <v>0.99957103807319536</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="n">
-        <v>12.36448034898145</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24">
+        <v>4.2674904655592982E-6</v>
+      </c>
+      <c r="C24">
+        <v>0.99999573250953444</v>
+      </c>
+      <c r="D24">
+        <v>0.99999573250953444</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="n">
-        <v>7.681213129909156</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25">
+        <v>4.6120199758892261E-4</v>
+      </c>
+      <c r="C25">
+        <v>0.99953879800241108</v>
+      </c>
+      <c r="D25">
+        <v>0.99953879800241108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>